--- a/data/病症及其对应的建议.xlsx
+++ b/data/病症及其对应的建议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\计科生活\大二\大数据实践赛\symptom-disease-dataset\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764A1DED-81BD-47B2-9B32-014F9DDF6C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE6E59-3D92-4290-A27A-0797370A8309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44880" yWindow="6405" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>索引</t>
   </si>
@@ -28,144 +28,586 @@
     <t>病症</t>
   </si>
   <si>
+    <t>西医建议</t>
+  </si>
+  <si>
+    <t>中医建议</t>
+  </si>
+  <si>
+    <t>登革热</t>
+  </si>
+  <si>
+    <t>以物理降温为主，对出血症状明显的病人，避免采用酒精擦浴。口服补液为主，适当进流质食物，对频繁呕吐、进食困难或血压低的患者，应及时静脉输液。可给予安定、颅痛定等对症处理。</t>
+  </si>
+  <si>
+    <t>宜食清热解毒凉血之品，如鱼腥草、冬瓜、鸡骨草、赤芍、玄参、紫草、茜草等；宜食清热滋阴、健脾和胃之品，如沙参、玉竹、麦冬、石斛、木耳、山药、银耳、莲子、大枣等。分早、中、睡前对皮疹进行外洗，同时进行冷湿敷。</t>
+  </si>
+  <si>
     <t>（眩晕）并列位置性眩晕</t>
   </si>
   <si>
+    <t>通常是由您头部位置的某些特定变化引起。 当您抬头或低头、躺下、翻身或在床上坐起来时，都有可能会发生。常用的药物有前庭抑制剂如地西泮、茶苯海明及甲磺酸倍他司汀等。对于极度敏感和焦虑患者，可以考虑使用地西泮。一般而言，如果出现复发性、突发性、重度或持续性不明原因的头晕或眩晕，请就医。</t>
+  </si>
+  <si>
+    <t>通过大椎穴、大杼穴还有肺俞穴血刺络放血，同时结合拔罐，能够祛瘀生新、活血通络来治疗眩晕；通过针刺治疗，活血化瘀通络的中药局部塌渍治疗；通过颈部局部的按摩或者理疗都能够缓解眩晕的症状；通过颈椎的牵引或者中医的小针刀等治疗都是很好的方法；患者应当多活动双肩关节，每日3次，每次20分钟，睡眠时一定要低枕平卧，避免长时间伏案工作，避免长时间看手机或者电脑，多参加户外的活动。</t>
+  </si>
+  <si>
     <t>肺结核</t>
   </si>
   <si>
+    <t>肺结核最常用的治疗方法是抗结核药物的联合治疗。标准的治疗方案通常包括4种药物，即异烟肼、利福平、吡嗪酰胺和乙胺丁醇。治疗时间一般为6个月或更长，具体时间根据患者病情和医生的建议。请务必按照医生的指导规范使用抗结核药物，并完整完成疗程，以避免药物耐药性的产生。患者应避免过度劳累，保持充足的睡眠和休息，有助于身体康复。此外，合理饮食也对康复至关重要，摄入足够的蛋白质、维生素和矿物质，以增强身体抵抗力。在一些情况下，可能需要一些辅助治疗手段，如气胸抽气、呼吸康复锻炼和手术干预等。具体请医生根据病情进行评估和决定。</t>
+  </si>
+  <si>
+    <t>本病中医称为“肺痨”，是具有传染性的慢性虚弱疾病，主要以咳嗽、咯血、潮热、盗汗及身体逐渐消瘦为其特征。可以用补天大造丸加减，以滋阴补阳、固本杀虫，常用的药物有太子参、山药、茯苓、黄芪、白术、紫河车、当归、鹿角、龟板、白芍等。</t>
+  </si>
+  <si>
     <t>甲状腺功能减退</t>
   </si>
   <si>
+    <t>甲状腺制剂终身替代治疗。早期轻型病例以口服甲状腺片或左甲状腺素为主。检测甲状腺功能，维持TSH在正常值范围。例如有贫血的患者可补充铁剂、维生素B12和叶酸；胃酸不足者应补充稀盐酸；缺碘者应补充碘剂，但必须与L-T4合用才能取得疗效。 [4]中、晚期重型病例除口服甲状腺片或左旋甲状腺素外，需对症治疗如给氧、输液、控制感染、控制心力衰竭等。甲减患者多为虚寒性体质故不宜食生、凉、冰食物。高热量、高蛋白、高维生素、适量脂肪，适量地节制饮食。注意食物与药物之间的关系，如服中药忌饮茶。</t>
+  </si>
+  <si>
+    <t>中医上采用食补的方法，海带、紫菜、蛋类、乳类、鱼类、肉类、豆制品、动物肝脏、新鲜蔬菜、水果等均宜食用。忌食各种促甲状腺肿的食物，如圆白菜、白菜、油菜、木薯、核桃等；应忌食富含胆固醇的食物，如蛋黄、奶油、动物脑及部分内脏等；要少吃坚果、芝麻酱、火腿、五花肉等高脂肪的食物。</t>
+  </si>
+  <si>
     <t>静脉曲张</t>
   </si>
   <si>
+    <t>药物治疗在下肢静脉曲张的保守治疗中发挥重要作用，可改善静脉功能，用于缓解下肢沉重、酸胀不适、痉挛、疼痛、皮肤营养改变和水肿等临床症状，促进溃疡愈合。治疗药物可分为静脉活性药物和其他药物。常用的静脉活性药物包括三大类：黄酮类（flvonoids）：主要成分为地奥司明。目前，国内应用较为广泛的药物是葛泰，具有抗炎作用，可抑制白细胞与血管内皮细胞相互作用。在众多国内外指南和专家共识中获得较高级别的推荐。七叶皂苷类（seven leaves saponins）：主要成分为七叶素和马栗种子提取物，具有降低毛细血管渗透性，减少渗出，减轻水肿；增加静脉张力，活化静脉瓣膜，促进静脉血液回流；清除氧自由基等作用。香豆素类（coumarins）：来源于草木犀植物提取物，可降低毛细血管通透性，促进血液循环及增加血液流量，促进淋巴回流，有效减轻水肿，特别是对炎性肿痛的疗效更佳。</t>
+  </si>
+  <si>
+    <t>肥胖的人应该减肥，肥胖虽不是直接原因，但过重的力量压在腿上可能会造成腿部静脉回流不畅，使静脉扩张加重。长期从事重体力劳动和长期站立工作的人，最好穿弹力袜套，使浅静脉处于被压迫状态。妇女经期和孕期等特殊时期要给腿部特殊的关照，多休息，要经常按摩腿部，帮助血液循环，避免静脉曲张。</t>
+  </si>
+  <si>
     <t>骨关节炎</t>
   </si>
   <si>
+    <t>改善症状的药物：镇痛剂如对已酰氨基酚有镇痛作用，但抗炎作用弱。非甾体抗炎药有抗炎止痛的特点，用药后可减轻关节疼痛，改善关节活动度。使用软骨保护剂：可缓解症状，维持和恢复关节功能。如聚氨基葡萄糖</t>
+  </si>
+  <si>
+    <t>急性期关节发热，肿胀宜先进行局部冷敷，退热消肿后可应用热敷。慢性期还可应用红外线、超短波、针灸、蜡疗、按摩等。牵引疗法对颈椎病神经根型患者效果较好，可以松弛肌肉，缓解疼痛，并能防止神经根相邻的组织形成粘连，但须在专科医生指导下进行。
+推拿和中药：祖国医学的推拿、针灸治疗在减轻骨关节炎症状方面有明显效果。中药帖剂可活血止痛，有时亦有良效。锻练应尽量在关节不负重下屈伸活动，建议健肢立地负重，患肢屈伸关节活动，或坐位进行关节屈伸锻炼。尽量不要做下蹲等会加重关节负荷的活动。针对髋关节、膝关节可以在床上练习仰卧起坐、直腿抬高等，次数越多越好。
+游泳是一项非常适合膝骨性关节炎患者的运动项目，它对膝关节无多大的负担，可使肌肉充分的活动。但蛙泳要求膝关节使出扭动得力。有时会造成不好的结果，故建议采用自由泳、仰泳。</t>
+  </si>
+  <si>
     <t>胃肠炎</t>
   </si>
   <si>
+    <t>治疗胃肠炎应禁食、纠正水电解质紊乱。通常患者只需卧床休息并饮用足量的水分（如口服补液盐溶液）即可。即使是呕吐的患者也要尽量多饮水。哺乳期的婴儿应继续哺乳。如果呕吐或腹泻持续时间较长或有严重脱水，有必要进行静脉补液。呕吐剧烈时可加用止吐药。如果腹泻持续时间超过24～48小时并且没有迹象表明有更严重的细菌感染，可加用止泻药。通常儿童不建议使用止吐药和止泻药。
+由于抗生素可能会引起腹泻或促进耐药菌生长，即使胃肠炎的致病菌已经明确，抗生素通常也不建议使用。但是，某些病原菌（如弯曲杆菌、志贺菌、霍乱弧菌等）感染或患者有旅行者腹泻，可使用抗生素。
+对于病毒感染所致的胃肠炎，抗生素并无效果。寄生虫感染所致胃肠炎需使用抗寄生虫药物。</t>
+  </si>
+  <si>
+    <t>若兼饮食停滞，可加神曲、山楂等消食和胃；若痛甚者可加香橼、佛手；若脘腹灼痛，嘈杂反酸，可加黄连、吴茱萸；若胃热偏盛，可加生石膏、知母、芦根清胃泄热；若日久肝肾阴虚，可加山茱萸、熟地滋补肝肾；若日久胃阴虚难复，可加乌梅、山楂肉、木瓜等酸甘化阴。</t>
+  </si>
+  <si>
     <t>丙型肝炎</t>
   </si>
   <si>
+    <t>在治疗前应明确患者的肝脏疾病是否由HCV感染引起，只有确诊为血清HCVRNA阳性的丙型病毒性肝炎患者才需要抗病毒治疗。抗病毒治疗目前得到公认的最有效的方案是：长效干扰素PEG-IFNα联合应用利巴韦林，也是现在EASL已批准的慢性丙型病毒性肝炎治疗的标准方案（SOC），其次是普通IFNα或复合IFN与利巴韦林联合疗法，均优于单用IFNα。建议配合医师治疗，不宜自行用药。</t>
+  </si>
+  <si>
     <t>支气管哮喘</t>
   </si>
   <si>
+    <t>哮喘需要长期规范化和个体化的治疗。还需要环境控制和哮喘的管理。哮喘家长可以使用日记卡等形式对孩子每天的哮喘症状进行观察记录，有明确诱因者记录每次症状诱因，用药情况及治疗效果。
+（1）长期抗炎治疗是基础的治疗，首选吸入激素。常用吸入药物有倍氯米松（beclomethasone，BDP）、布地奈德（budesonide）、氟替卡松（fluticasone）、莫米松（momethasone）等，后二者生物活性更强，作用更持久。通常需规律吸入一周以上方能生效。
+（2）应急缓解症状的首选药物是吸入β2激动剂。β2激动剂主要通过激动呼吸道的β2受体，激活腺苷酸环化酶，使细胞内的环磷酸腺苷（cAMP）含量增加，游离Ca减少，从而松弛支气管平滑肌，是控制哮喘急性发作的首选药物。
+（3）规律吸入激素后病情控制不理想者，宜加用吸入长效β2激动剂，或缓释茶碱，或白三烯调节剂（联合用药）；亦可考虑增加吸入激素量。
+（4）重症哮喘患者，经过上述治疗仍长期反复发作时，可考虑做强化治疗。即按照严重哮喘发作处理，给予大剂量激素等治疗，待症状完全控制、肺功能恢复最佳水平和PEF波动率正常后2至4天后，逐渐减少激素用量。部分患者经过强化治疗阶段后病情控制理想。
+建议配合医师治疗，不宜自行用药。</t>
+  </si>
+  <si>
+    <t>对于支气管哮喘，治疗需要以降气化痰为主，可采用苏子降气汤。若痰多且以肺脾同病为主，则需在原方基础上加人参以补气。若气逆短气息促明显，可加用沉香1～3分冲服。若为肾不纳气之喘，则需加用五味子、冬虫夏草等益肾纳气之品。</t>
+  </si>
+  <si>
     <t>痤疮</t>
   </si>
   <si>
+    <t>每日一到两次温水洗脸，清洁皮肤，忌用手挤压或搔抓皮损。忌用油脂类、粉类化妆品和含有糖皮质激素的软膏及霜剂。
+​可服用以下药物缓解：
+​（1）维A酸类、过氧化苯甲酰、抗生素类、壬二酸、硫磺洗剂等局部外用药物。
+​（2）选择四环素类（米诺环素、多西环素等）、大环内酯类等抗生素药物。其疗程通常6～12周。
+​（3）对于严重的痤疮，口服异维A酸是标准疗法。疗程以达到最小累积剂量60mg/kg为目标。
+​（4）利用抗雄激素治疗，如口服避孕药复方醋酸环丙孕酮片，适用于女性中、重度痤疮患者。
+​（5）口服糖皮质激素，主要用于暴发性或聚合性痤疮，遵循短期、小剂量、与其他方法联合应用的原则。</t>
+  </si>
+  <si>
+    <t>常用知柏地黄丸、消痤汤、桃红四物汤等中药内服辨症治疗。患者还可以采取放血治疗、针灸治疗、拔罐治疗等，也能让痤疮尽快消退。</t>
+  </si>
+  <si>
     <t>胃食管反流病</t>
   </si>
   <si>
+    <t>改变生活方式，如控制体重、戒烟戒酒、规律饮食、抬高床头、避免睡前进食、避免食用可能诱发反流症状的食物。同时可结合抑制胃酸、促动力、黏膜保护等治疗方式。抑制胃酸治疗主要包括组胺H2受体拮抗剂和质子泵抑制剂。促动力治疗仅作为抑酸药物的补充，黏膜保护剂仅用于症状轻、间歇发作的患者临时缓解症状，可加用抗焦虑抑郁药。严重情况下需进行腹腔镜下的手术治疗。</t>
+  </si>
+  <si>
+    <t>中医采取降胃气、降肝气、补脾胃的方法进行治疗。中医上，胃食管反流疾病主要是胃气上逆和肝气上逆，可以选择小柴胡颗粒，肝脾同调。可根据寒偏重或热偏重增加其他中成药。如果热象比较明显，如口苦、烧心，可选择小柴胡颗粒配左金丸。若寒象比较明显，如烧心、反酸，冷食后大便稀唐、消化不良，可采用小柴胡颗粒配理中丸。具体用药需面诊后辩证给予治疗。注意多吃流食、半流食、忌食辛辣、刺激、油腻、生冷性食物，温热、清淡饮食、戒烟酒。</t>
+  </si>
+  <si>
     <t>水痘</t>
   </si>
   <si>
+    <t>治疗上主要采取对症治疗。皮肤瘙痒者可以口服抗组胺药，若疱疹未破裂，可局部涂擦炉甘石洗剂以止痒，若因搔抓或挤压致疱疹破裂，可用抗生素软膏涂抹患处。患者发热期时应卧床休息，减少活动，高热可给予退烧药，例如对乙酰氨基酚。一般忌用糖皮质激素和阿司匹林。</t>
+  </si>
+  <si>
+    <t>中医认为水痘是外感风热时邪，内有湿热蕴结，留于肺脾，发于肌表所致。此时可以遵医嘱应用祛湿解毒、疏风清热类的药物，帮助改善水痘的相关症状，比如可以服用五福化毒丸、银翘散、清胃解毒汤等，也可以选择外敷用药，如黄柏、马齿苋等药物，用水煎制后敷于患处，有一定的用处，可以缓解不适症状。</t>
+  </si>
+  <si>
     <t>糖尿病</t>
   </si>
   <si>
+    <t>​目前糖尿病治疗药物包括口服药和注射制剂两大类。
+​口服降糖药主要有促胰岛素分泌剂、非促胰岛素分泌剂、二肽基肽酶-4抑制剂（DPP-4抑制剂）和钠-葡萄糖共转运蛋白2抑制剂（SGLT-2抑制剂）。
+​注射制剂有胰岛素及胰岛素类似物、胰高血糖素样多肽-1受体激动剂（GLP-1受体激动剂）。</t>
+  </si>
+  <si>
+    <t>​治疗糖尿病的中药包括人参、黄芪、石膏、淮山药、五味子、麦冬、花粉、党参、知母、黄连、桃仁、杏仁、茯苓等。糖尿病主要是胰岛细胞功能障碍或胰岛素抵抗导致的，与遗传因素，环境因素，饮食因素都有直接的关系。这几种中药都具有清热养阴，降血糖的作用。</t>
+  </si>
+  <si>
     <t>麻痹（脑出血）</t>
   </si>
   <si>
+    <t>若出血量不多，可采取常规处理，但在急性期，病人需要绝对卧床，注意营养，严格脱水、降低颅内压，严格控制血压，避免再出血，并注意恢复神经功能。同时临床上可以口服甘露醇和甘油果糖，降低颅内压，口服降压药，以及依达拉奉等药物，促进神经功能的恢复，手麻脚麻的情况也会有所缓解。若出血量较大，可采用手术方法将血肿清除，手麻脚麻的情况也会随之好转。</t>
+  </si>
+  <si>
+    <t>​脑出血是因为人体内的气血淤积导致的疾病，一般选用的药材是牛黄，苏和香丸，华佗丸等等。也可使用针灸疗法，针灸是中医中比较传统的一个疗法，通过用针来刺激患者的六位来起到治疗的目的。对于脑出血的患者来说，选用的六位一般是人中，百合，涌泉等穴位。</t>
+  </si>
+  <si>
+    <t>戊型肝炎</t>
+  </si>
+  <si>
+    <t>​戊型肝炎的急性期的早期，需要隔离治疗，并且保证休息，避免过度劳累，若食欲不振，要进食易于消化和富含维生素的清淡食物，避免饮酒和吸烟。肝炎患者都会有一定程度的肝功能异常，可以选择使用还原性谷胱甘肽片、复方甘草酸片和维生素E胶囊等药物来抗氧化和减轻炎症。若肝内有胆汁淤积，可以使用熊去氧胆酸片和丁二磺酸腺苷蛋氨酸肠溶片来治疗。</t>
+  </si>
+  <si>
+    <t>在中医上可分为肝郁脾虚、肝胆湿热、肝脾血瘀三型。治疗主要用于急性黄疸型戊型肝炎患者，其中热重者可用茵陈蒿汤、栀子柏皮汤加减；湿重者可用茵陈胃苓汤加减。</t>
+  </si>
+  <si>
     <t>疟疾</t>
   </si>
   <si>
+    <t>患者应卧床休息。注意水分补给，食欲不佳者可给予流质或半流质饮食，恢复期应给予高蛋白饮食。高热时可采用物理降温，过高热患者因高热难忍可药物降温。注意保暖，随时更换汗湿的衣被以防受凉。同时可在医生指导下选用羟基哌基、磷酸氯喹、磷酸羟基哌喹、硝喹、硫酸奎宁、青蒿素等药物进行治疗。</t>
+  </si>
+  <si>
+    <t>治疗疟疾的中药有青蒿、苦棟皮、防风等，需要遵医嘱使用。具体分析如下：
+​1.青蒿：青蒿是最常用的中药，被世界卫生组织认可为治疗疟疾的有效药物之一。青蒿含有青蒿素等有效成分，可以抑制疟原虫的生长，有效缓解疟疾症状，严重的疟疾可以采用青蒿素联合磷酸氯喹等药物。
+​2.苦棟皮：苦棟皮有清热解毒、散癌止痛等功效。其有效成分苦棟碱可以杀死疟原虫，对疟疾有较好的疗效，但不建议长期大量食用。
+​3.防风：防风具有祛风解疟的功效，可以帮助减轻疟疾的发作和症状的疗效。</t>
+  </si>
+  <si>
     <t>艾滋病</t>
   </si>
   <si>
+    <t>​当患有艾滋病时，在治疗上可以通过外用药物、内服药物、免疫治疗等方法进行。
+1.外用药物：患者可以遵医嘱使用涂抹斑蝥素乳膏、鬼臼毒素软膏、氟尿嘧啶乳膏等药物进行治疗。药膏能慢慢通过皮肤的透到内部，抑制病毒细胞的活力，同时在患病期间涂抹药膏，还可以起到止痒的作用，可以使伤口迅速愈合。
+2.内服药物：患者还可以通过口服药物抑制病毒繁殖，使患者身体产生抗体，修复受损组织。可以遵医嘱使用拉米夫定片、依非韦伦片、恩曲他滨替诺福韦片等药物进行治疗。
+3.免疫治疗：由于艾滋病会影响患者的免疫力，所以在医生的指导下通过免疫治疗缓解身体不适，常见药物有胸腺肽肠溶胶囊、转移因子口服液等。</t>
+  </si>
+  <si>
+    <t>艾滋病的发病主要是由于外在致病因素的侵袭、正气不足等因素，建议患者在中医辨证论证后根据病情采取适当的处方或中药来控制病情，一般可以使用银翘粉、百合固金汤、安宫牛黄丸等可以起到很好的缓解和控制作用。</t>
+  </si>
+  <si>
     <t>伤寒</t>
   </si>
   <si>
+    <t>一般情况下应卧床休息，注意饮水，补充电解质，维持酸碱平衡，适当补充营养，注意蛋白质和维生素的补充，发热者可采用物理降温等方法进行降温；如果采用抗菌治疗的方式需要遵循尽早、足量、联合的用药原则，患者可遵医嘱口服第三代喹诺酮类药物，如氧氟沙星、环丙沙星等；如出现持续高热时，可遵医嘱使用对乙酰氨基酚、布洛芬等药物进行退热治疗。</t>
+  </si>
+  <si>
+    <t>在平时需要调整饮食结构，尽量吃一些清淡温热的食物，比如小米粥或者是南瓜粥等，能够减少对肠道的刺激；如果病情比较严重，也可以在医生的指导下使用通宣理肺丸、板蓝根颗粒或者是牛黄解毒片等中成药进行治疗，可以起到清热解毒的效果，帮助缓解病情；也可以通过中医推拿、针灸等方式治疗，需要注意的是务必由专业医生进行操作。</t>
+  </si>
+  <si>
     <t>银屑病</t>
   </si>
   <si>
+    <t>可以在医生的指导下服用阿维A胶囊、阿莫西林克拉维酸钾片、甲氨蝶呤片等药物进行治疗，同时涂抹维A酸软膏、他扎罗汀凝胶等外用药物，治疗期间饮食应以清淡、易消化为主，尽量少吃辛辣刺激性食物；由于银屑病病程可能比较长，有易复发倾向，可以在医生的指导下选择光照疗法、光化学疗法等物理方法进行治疗，同时注意保持良好的个人卫生以及适当的运动，增强体质。</t>
+  </si>
+  <si>
+    <t>平时应注意营养均衡，避免辛辣、刺激的食物，多饮水，多吃富含维生素的水果、蔬菜，如西红柿、苹果等；在日常生活中，患者应注意皮肤的清洁卫生，穿衣应以舒适、透气为主，同时要规律作息，保证充足的睡眠；建议在医生的指导下选择当归、丹参、白鲜皮等中药煎剂对患处进行熏洗治疗，从而起到活血化瘀、软坚散结的功效，有助于缓解病情；也可以在医生的建议下外用银屑灵膏、清凉止痒搽剂等药物治疗，从而缓解皮肤干燥、瘙痒等症状。</t>
+  </si>
+  <si>
     <t>偏头痛</t>
   </si>
   <si>
+    <t>偏头痛的西药治疗，要根据疼痛的程度来有针对性的选择药物。具体如下：第一、如果是轻中度的偏头痛，建议选择非甾体类抗炎药，包括对乙酰氨基酚片、奈普生片或者布洛芬缓释胶囊等。第二、对于中重度偏头痛患者，使用上述药物效果不明显时，建议服用特异性的止痛剂，例如麦角胺、二氢麦角胺、佐米曲普坦或者利扎曲普坦等。第三、偏头痛的预防性治疗，建议患者选择尼莫地平片或者尼麦角林片等。</t>
+  </si>
+  <si>
+    <t>偏头痛中医治疗通常可采用口服中成药天麻头痛片、复方羊角颗粒、针灸治疗等方法：天麻头痛片具有养血祛风，散寒止痛的功效，通常用于治疗风寒、血虚、血瘀引起的头痛；复方羊角颗粒通常具有平肝、镇痛的功效，临床上一般用于治疗血管性头痛，紧张引起的头痛等症；以上药物要在医生指导下使用，建议平时注意生活作息规律，早睡早起，保持心情舒畅，学会减压，适当体育锻炼，可以适当缓解偏头痛症状。除此之外，一般可以在医生指导下行针刺头痛穴、列缺穴、太冲穴等，起到活血、化瘀，通络，止痛的效果。</t>
+  </si>
+  <si>
     <t>药物反应</t>
   </si>
   <si>
+    <t>药物不良反应的处理原则及处理方法，需要遵循及早就医，在医生的指导下结合患者的具体情况针对性处理，不能一概而论。
+首先出现药物不良反应后应立即停药，同时报告医生并遵医嘱针对性处理；若药物不良反应为一般过敏反应，且症状较轻微，在患者的耐受范围内，可遵医嘱减慢药物滴注速度或减少口服药物剂量，必要时给予减轻不良反应的药物来缓解症状，待情况好转后需继续观察；若药物不良反应较严重，如出现心悸、胸闷、呼吸困难、寒战、面色苍白、皮疹、发热等，需立即停药，就近就医，必要时进行心肺复苏，出现休克者，需给予抗休克治疗。
+总之，患者在用药过程中或用药后出现不良反应，建议应立即停止用药，保存好相关药物，同时通知专业医生并结合自身情况遵医嘱针对性处理。</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>普通感冒</t>
   </si>
   <si>
+    <t>感冒从西医角度上讲是由于鼻咽部的感染细菌或者是病毒所引起的，对治疗感冒的药也分为两大类，如果是细菌感染了，就需要用抗菌的药物，如果是病毒感染，就需要使用抗病毒的药物。
+感冒多半是由病毒导致的，一般就是抗病毒、抗过敏，解热镇痛药物的三位一体的疗法，常用的药物就是复方氨酚烷胺制剂，也可以配合清热解毒的中药，比如银花感冒颗粒来治疗，有咳嗽症状的患者应该加用抗菌消炎的药物和止咳化痰的药物。</t>
+  </si>
+  <si>
+    <t>如果是感受风寒导致的感冒，通常可以使用疏散风寒、解表的药物进行治疗，如荆防败毒散加减，或者是感冒清热颗粒、感冒疏风胶囊、感冒软胶囊等；如果是感受风热导致的感冒，通常可以使用具有疏散风热、解表功效的药物进行治疗，如银翘散加减，或者是金花清感颗粒、连花清瘟胶囊、热炎宁合剂等。</t>
+  </si>
+  <si>
     <t>甲状腺功能亢进</t>
   </si>
   <si>
+    <t>生活调治：甲亢确诊后，一般要注意休息，避免重体力劳动。饮食上要给予充足的营养，如糖类、蛋白质、脂肪和维生素B类等，以保证供给高代谢所需要的营养和热量。同时要注意避免精神刺激，防止感冒、外伤、疲劳过度等，以免加重病情。
+内科药物治疗：抗甲状腺药物治疗甲亢是目前的主要治疗方法，还有针对各种症状和并发症的治疗，是最普遍的西医内科治疗方法。抗甲状腺药物以硫脲类和咪唑类化合物为主，常用的硫脲类药物有甲基硫氧嘧啶和丙基硫氧嘧啶，常用的咪唑类药物有他巴唑和甲亢平。
+放射性131碘治疗：此法方便、安全、治愈率高，复发率低，但甲亢症状消失较慢，且有并发甲状腺功能减退症。
+外科手术治疗：用抗甲状腺药物治疗控制病情后，或药物治疗失败后，施行甲状腺组织部分切除，或切除其他引起甲亢的腺瘤，使其分泌甲状腺激素减少而达到治疗目的。</t>
+  </si>
+  <si>
+    <t>中医治疗甲状腺功能亢进症的主要方法有用药调理、外部治疗、针灸治疗等，具体分析如下：
+用药调理：中医认为该病的发生和情志有关，其病位在肝脏。长期情志不遂、肝气郁结、气郁化火、火旺会耗气伤阴，继而诱发甲状腺功能亢进症。典型表现为甲状腺肿大、随情绪波动而消长，同时伴有急躁易怒、焦虑失眠等症状，需要选择疏肝理气、散结的药物治疗，常见药物类型有柴胡舒肝丸、丹栀逍遥丸、开郁舒肝丸等。
+外部治疗：外部治疗也是中医治疗的一部分，甲状腺功能亢进症造成眼凸、甲状腺肿后，可通过突眼外洗法、瘿瘤外洗法和甲状腺肿外敷法等治疗方式缓解。在治疗过程中，也须结合实际病情来选择不同类型的中药材。
+针灸治疗：针灸疗法是针法和灸法的总称，针法是用金属制成的针，刺入人体指定的穴位，运用手法，以调整营卫气血。针灸穴位可选择内关穴、足三里穴、三阴交穴等。
+然后中医治疗只能起到辅助缓解效果，建议先就医进行检查，按照实际病情进行针对性的抗甲状腺药物治疗（常见药物类型有甲巯咪唑片、丙硫氧嘧啶片、地塞米松片等）、放射碘治疗，必要时进行手术治疗。治疗期间，应当养成良好生活和饮食习惯，比如戒烟戒酒、适当进行体育运动、保持情绪稳定等，都有助于病情恢复。</t>
+  </si>
+  <si>
     <t>丁型肝炎</t>
   </si>
   <si>
+    <t>丁肝一般指丁型病毒性肝炎，患者可以采取一般治疗、药物治疗以及手术治疗等：
+一般治疗：患者在平时要戒烟禁酒，可以多吃富含优质蛋白、高维生素的食物；还要保持充足的睡眠，避免熬夜。
+药物治疗：如果患者肝功能出现异常，可以遵医嘱使用抗病毒的药物治疗，比如恩替卡韦、替诺福韦、拉米夫定等；还要使用水飞蓟宾、甘草酸二铵、熊去氧胆酸等保肝降酶的药物治疗。
+手术治疗：如果患者病情已经发展到终末期，需要进行肝移植术治疗。</t>
+  </si>
+  <si>
+    <t>中医通常使用疏肝理气的方式达到缓解效果：茵陈连翘汤对丁肝的治疗有很大的效果，对患者的肝恢复有很大的帮助，另外还能起到清热解毒的效益，患者每日需将药物煎煮后每日服用一次，等到肝功能逐渐正常后，再减少服用量；黄芪女贞子汤：此药方有活血化淤、强肝解毒的功效，在慢性丁肝的治疗上也很有效果，对于胆红素比较高的患者可以加量使用，从而达到改善病症，减轻疼痛的效果；寄生桑椹汤对补肾益肝有很好的效果，经常用于丁肝等肝部疾病的治疗。患者每天食用两次，在空腹时用水吞服，另外还要注意会出现不适反应。</t>
+  </si>
+  <si>
     <t>真菌感染</t>
   </si>
   <si>
+    <t>治疗真菌感染的方法，在口服药物方面均可以口服伊曲康唑胶囊或者盐酸特比萘芬片，起到杀灭真菌的治疗效果。但是对于曲霉菌感染，可以口服两性霉素B进行治疗。在中成药物方面，可以选择百癣夏塔热胶囊口服，起到杀虫、解毒、止痒的治疗效力，也可以应用复方蛇脂软膏涂抹，同样起到杀虫、解毒的治疗效果。在西药外涂方面，可以涂抹联苯苄唑软膏或者盐酸特比萘芬凝胶、卢立康唑软膏，起到杀灭真菌的治疗效果。如果出现脓性渗出，可以外用夫西地酸软膏，进行消灭细菌的治疗。</t>
+  </si>
+  <si>
+    <t>可使用中药外用药膏、洗剂等进行治疗。适用于真菌感染较浅，表现为皮肤瘙痒、发红、脱屑等症状的患者，特别是局部感染较为明显的情况。可通过口服中药来调整人体内部环境，增强抵抗力，抑制真菌的生长。适用于真菌感染比较严重或全身多部位受到感染的患者，特别是伴有全身症状如疲倦、食欲不振、失眠等的情况。
+除以上相对常见的治疗方式外，还有其他的治疗方式，比如中草药熏蒸疗法，适用于真菌感染比较严重且局部化的情况。此外，中医还注重调整饮食习惯，增强身体抵抗力，对于预防和辅助治疗真菌感染也具有一定的作用。</t>
+  </si>
+  <si>
     <t>尿路感染</t>
   </si>
   <si>
+    <t xml:space="preserve">尿路感染的治疗主要以抗菌药物治疗为主，同时辅以对症治疗、生活方式调整等。若患者存在可去除的感染高危因素，治疗还应包括去除高危因素治疗，如取出结石，拔除尿管等。
+药物治疗：环丙沙星：适用于细菌引起的尿路感染患者，具有抗菌作用，可能会引起腹部不适、腹泻、恶心、呕吐等不良反应。
+左氧氟沙星：具有抗菌作用，适用于尿路感染患者，具有抗菌的作用，可能会引起腹痛、头昏、头痛等不良反应，妊娠及哺乳期妇女禁用。
+呋喃妥因：具有抗菌作用，适用于尿路感染患者，可能会引起恶心、呕吐、纳差和腹泻等不良反应。
+复方磺胺甲噁唑：适用于细菌引起的尿路感染，具有抗菌作用，可能会引起关节及肌肉疼痛、发热等不良反应，孕妇及哺乳期妇女禁用。
+磷霉素：适用于尿路感染患者，具有抗菌的作用，可能会引起恶心、纳差、中上腹不适、稀便或轻度腹泻等不良反应，孕妇及哺乳期妇女禁用。
+妊娠期患者应避免对婴儿和母体有毒性的药物，如四环素类（金霉素、土霉素等）和氨基糖苷类（庆大霉素、阿米卡星等）抗菌药物。建议选用毒性低，对胎儿及母体均无明显影响，也无致畸作用的药物（如阿莫西林、头孢拉定等），具体用药应遵医嘱。
+</t>
+  </si>
+  <si>
+    <t>尿路感染中医叫淋证，主要分为以下几个证型：
+1、热淋：一般以小便频急短涩、尿道有灼热刺痛感，尿液黄色，伴有小腹胀痛、发热恶寒、口苦、恶心呕吐，或者腰部拒按等，方用八正散；
+2、石淋：主要症状为尿中夹沙石、小便艰涩、排尿时突然中断、尿道窘迫疼痛，还有少腹疼痛、腰腹部绞痛，痛引到小腹或者连及外阴，甚至尿中有血；病久如果结石无法排出，病人一般会出现面色少华、精神萎顿、少气乏力，方用石韦散；
+3、气淋：可表现为实证和虚证，实证表现以小便涩痛、淋漓不已、小腹胀满疼痛为主；虚证表现为尿有涩滞、小腹坠胀感、尿不净、面白没有光彩；实证方用沉香散，虚证方用补中益气汤；
+4、血淋：实证表现小便热涩刺痛、尿色深红，或者伴有血块，一般疼痛特别急剧或者兼有心烦；虚证表现为尿色淡红、尿痛、滞涩不明显，伴腰膝酸软、神疲乏力；实证方剂是小蓟饮子，虚证方用知柏地黄丸；
+5、膏淋：分实证和虚证表现，实证一般小便混浊如米泔水，米泔水就是淘米水颜色，放置久可有絮状沉淀，上面漂有油脂、凝块或者混有血液、尿道热涩疼痛；虚证一般表现为病久反复发作，尿出如脂、小便涩痛，不见减轻，形体日渐消瘦，头昏无力，腰膝酸软；一般实证药物选程氏萆薢分清饮，虚证方用膏淋汤；
+6、劳淋：小便不甚赤涩、淋漓不已，就是小便尿不尽，时作时止，一般劳累时可以发作，伴有腰酸、膝软，神疲乏力等，方药选无比山药丸</t>
+  </si>
+  <si>
+    <t>得了心脏病，药物治疗是首选的治疗方案，可以通过降压、降脂、扩血管、抗心律失常等方案进行治疗：
+1、降压药物包括利尿剂、血管紧张素转换酶抑制剂、β受体阻滞剂、血管紧张素Ⅱ受体拮抗剂以及钙离子通道阻滞剂等；
+2、降脂药物包括他汀类药，如阿托伐他汀、瑞舒伐他汀等；
+3、抗心律失常药物包括胺碘酮、索他洛尔等；
+4、扩血管药物包括硝酸甘油、硝酸异山梨酯缓释片等；
+5、抗血小板药物包括阿司匹林和替格瑞洛等；
+6、抗凝药物包括华法林、达比加群等。
+还有心脏病的手术治疗，包括经皮冠状动脉介入治疗、冠状动脉旁路移植术、射频消融术以及起搏器植入术。</t>
+  </si>
+  <si>
+    <t>心脏病在中医中属于胸痹的范畴，以胸部闷痛、喘息不得卧为主要临床表现，可以使用中成药、中药材、中药方剂进行治疗，有利于改善心脏病导致的心悸、气短、喘息、自汗等不适症状。
+1、中成药：心脏病可能是由心脏气血瘀滞、气血不足等因素导致，可以遵医嘱使用益气养阴、活血化瘀、清热解毒、强心复脉的药物进行治疗，例如荣心丸、心达康片、心肝宝胶囊、速效救心丸、稳心颗粒、冠心苏合胶囊、麝香保心丸、脑心通胶囊等；
+2、中药材：心脏病患者可以使用黄芪、人参、党参、西洋参、白术、茯苓、甘草等具有补气活血作用的药物，还可以使用丹参、桃仁、红花、川芎、地龙、乳香、郁金等具有活血化瘀作用的药物，也可以使用泽泻、猪苓、车前子、车前草、冬瓜皮、茯苓皮、生姜皮、葶苈子等药物进行利水治疗。此外，还可以使用附子、乌头、肉桂、干姜等药物来补益肾阳，改善心脉瘀阻所致的心悸不宁、气短乏力、胸闷胸痛等症状，还可以改善室性早搏、房性早搏等情况；
+3、中药方剂：针对于心脾两虚导致的多梦易醒等不适症状，可以使用补益心脾、养血安神的药物进行治疗，例如归脾汤等。阴虚火旺导致心烦、心悸时，可以滋阴降火、养心安神，遵医嘱使用黄连阿胶汤等药物进行治疗。心虚胆怯导致多梦易醒、心悸等不适症状时，可以使用益气镇惊、安神定志的中药方剂进行治疗，例如安神定志丸等。</t>
+  </si>
+  <si>
+    <t>过敏</t>
+  </si>
+  <si>
+    <t>过敏的治疗是综合性的，包括以下几种治疗方法：
+过敏原的控制： 首先要远离过敏原，避免过敏原对身体的进一步刺激。过敏治愈后也应在生活中注意避免接触已知的过敏原，以防过敏再发。但是有些过敏原无处不在（比如花粉、尘螨等），且较隐蔽，要想完全避开十分困难。
+系统性药物治疗： 最常用的是口服抗组胺药，就是我们常说的抗过敏药物，如西替利嗪、氯雷他定、咪唑斯汀、依巴斯汀等。此外，还可以肌肉注射氯苯那敏、地塞米松，静脉推注葡萄糖酸钙。
+外用药物和局部性药物治疗： 可以有效缓解不适症状。如各种外用软膏，适合有皮疹、皮肤瘙痒症状者；各种喷鼻剂、滴眼液等，适合有鼻痒、鼻塞、流涕、眼痒、流泪症状者；吸入剂，适合有哮喘症状者。
+专科治疗： 对于反复发生过敏性鼻炎、皮肤过敏、哮喘的患者，可能需要进一步就诊于耳鼻喉科、皮肤科、呼吸科等，进行规范、系统的专科治疗，以减少过敏发作。
+脱敏治疗： 医学上称为「特异性免疫治疗」，是目前唯一针对过敏的病因进行治疗的方法。目前能脱敏尘螨、常见的一些花粉、部分霉菌、动物毛等。</t>
+  </si>
+  <si>
+    <t>过敏疾病，中医一般用过敏煎加减治疗。
+方中银柴胡甘寒益阴，清热凉血，防风辛温解表，散风除湿，乌梅酸涩收敛，化阴生津，五味子酸甘而温，补肾养阴，全方四味药，有收有散，有补有泻，有升有降，阴阳并调。
+治疗过敏哮喘，加三子养亲汤降逆化痰。治疗过敏性荨麻疹可以加黄茋荆芥白蒺藜，固表祛风。
+治疗过敏性鼻炎，可以加玉屏风散和苍耳子散益气解表，抗敏止涕。</t>
+  </si>
+  <si>
+    <t>黄疸</t>
+  </si>
+  <si>
+    <t>肝内胆汁淤积性黄疸
+常见疾病有病毒性肝炎（淤胆型）、药物性肝病、妊娠期复发性黄疸、原发性胆汁性肝硬化等。治疗药物可选用熊去氧胆酸（UDCA）、糖皮质激素、苯巴比妥、S- 腺苷蛋氨酸（SAMe）、茴三硫等。
+新生儿黄疸
+新生儿黄疸是新生儿期常见的黄疸性疾病，大多在出生后 2-3d 出现，4-6d 为高峰期，大部分为生理性过程，少数可发展为高胆红素血症，严重者可致急性胆红素脑病及核黄疸，造成永久性神经损害或终身残疾。
+治疗药物可选用白蛋白、苯巴比妥、益生菌制剂、丙种球蛋白。
+梗阻性黄疸
+梗阻性黄疸指因各种原因阻碍胆汁进入肠道，引起胆道压力增高，胆汁由毛细胆管逆流入血窦，胆汁酸的肠肝循环受阻，而使血清中胆红素水平升高，致机体发生一系列病理生理改变的综合征。
+对梗阻性黄疸者，减黄或术后联用护肝利胆药物 S- 腺苷蛋氨酸、胆宁片等，同时补充维生素 K、白蛋白等，可促进黄疸消退及肝功能恢复。
+肝细胞性黄疸
+常见疾病有病毒性肝炎、药物性肝病、酒精性肝病、肝硬化及严重感染所致的肝损害等，常有恶心、呕吐、纳差等消化道症状等。治疗药物可选用抗菌药物（抗感染）、保肝药物（如甘草酸类制剂、还原型谷胱甘肽等）。</t>
+  </si>
+  <si>
+    <t>中医治疗黄疸较有优势，不同疾病导致的黄疸给予的中药治疗也不同，常见疾病以及中药如下：
+1、单纯黄疸：黄疸分为阳黄和阴黄，阳黄包括热中有湿，可以用茵陈蒿汤治疗，湿中有热的黄疸用茵陈四苓散和甘露消毒丹治疗；
+2、胆腹积热：比如胆结石、胆囊炎，出现黄疸时可以用大柴胡汤加减治疗；
+3、疾黄：如肝衰竭，通常病情危重，患者出现目黄深黄、小便黄，而且是金黄色。患者会出现神昏谵语、昏迷以及多腔道出血，比如牙龈、鼻子、消化道出血以及呕血、便血等，可以用千金犀角散治疗；
+4、慢性疾病：如果患者黄疸呈烟熏样并且有脾胃虚寒表现，可以用茵陈术附汤治疗；
+5、脾胃虚弱、气血不足：可以用八珍汤、归脾丸等加减治疗。</t>
+  </si>
+  <si>
+    <t>脓疱</t>
+  </si>
+  <si>
+    <t>1、局部治疗：使用抗生素软膏或乳膏，如莫匹罗星软膏、新霉素软膏等，直接涂抹在受感染的皮肤上。
+2、系统治疗：对于大面积或严重的脓疱疮，可能需要口服抗生素，如青霉素类或头孢类抗生素。
+3、支持治疗：保持患处清洁干燥，避免搔抓，以减少感染扩散的风险。
+4、预防措施：注意个人卫生，保持皮肤清洁，及时治疗皮肤损伤，避免与患者密切接触，以防止感染传播。</t>
+  </si>
+  <si>
+    <t>中医治疗脓疱疮通常采用辨证论治的原则，
+根据患者的具体症状和体质来制定治疗方案。常见的中医治疗方法包括：
+中药内治：根据患者的证型（如湿热内蕴、脾虚湿毒等），使用相应的中药方剂，如龙胆泻肝汤、五味消毒饮等。
+中药外用：使用中药制剂如金黄散、紫草膏等外敷，以清热解毒、燥湿止痒。
+针灸：通过刺激特定的穴位来调节气血，平衡阴阳，如足三里、曲池等穴位。
+拔罐：在患处周围进行拔罐，以促进局部血液循环，减轻炎症。</t>
+  </si>
+  <si>
+    <t>低血糖</t>
+  </si>
+  <si>
+    <t>常见药物：葡萄糖注射液、氢氯噻嗪、苯巴比妥、生长抑素、胰高血糖素、氢化可的松
+1、对于单纯摄入不足所致的低血糖，可通过口服医用葡萄糖粉剂及葡萄糖注射液改善。
+2、合并高血压、水肿的患者，可在医生指导下，给于利尿剂合剂应用，如氢氯噻嗪。
+3、低血糖合并抽搐等，在纠正低血糖同时，给于抗癫痫药物，如苯巴比妥、苯妥英钠等。
+4、胰岛素瘤导致低血糖，可给予生长抑素治疗。
+5、低血糖昏迷在补糖同时，可给于胰高血糖素应用，可升高血糖。
+6、对于常规处理效果不理想，出现顽固性低血糖者，可给于糖皮质激素应用，如氢化可的松等。</t>
+  </si>
+  <si>
+    <t>低血糖在中医里没有固定名称，随着患者症状的不同，中医诊断及治疗方法有所不同。低血糖患者一般气血不足，轻症可表现为心慌、饥饿感、乏力、出冷汗，进食糖块或糖水后较快恢复，中医根据患者的情况辨证论治可诊断为心悸，可给予患者补气养血的药物，如黄芪、当归、白术、茯苓、酸枣仁等预防疾病发生。当患者表现为昏迷、呼之不应时，中医予患者诊断为晕厥，可能伴有四肢厥冷、出冷汗等，也称为四逆之证，应予患者当归四逆汤等，里面主要有附子、干姜、当归、茯苓等回阳救逆。
+出现低血糖症状时，建议患者及时去医院就诊，查找病因，预防下次低血糖发生，避免引起危急重症，若患者症状较重，需遵医嘱行静脉补液，可输注葡萄糖注射液。</t>
+  </si>
+  <si>
+    <t>酒精性肝炎</t>
+  </si>
+  <si>
+    <t>治疗酒精性肝病的首要方法是戒酒，其疗效与肝病的严重度有关
+然后治疗酒精性肝炎的药物有以下几种，1、糖皮质激素，可以改善重症酒精性肝炎患者的生存率。2、美他多辛，可以加速酒精从血清中的清除，有助于改善酒精的中毒症状。3、腺苷蛋氨酸，可以改善酒精性肝炎患者的临床症状和检测指标，还有多烯磷脂酰胆碱对酒精性肝炎的患者也有阻止进一步恶化的情况。4、其他的包括甘草酸制剂、水飞蓟素类的药物，还有还原性谷胱甘肽等等，都有不同程度的抗炎，保护肝细胞的作用，临床上都用于治疗酒精性肝病。</t>
+  </si>
+  <si>
+    <t>酒精性肝炎是由长期饮酒导致的肝脏疾病，严重时可引起肝硬化甚至肝癌。中医治疗酒精性肝炎的主要方法包括清热解毒、利湿化痰、调理肝气等。以下是一些常用的中药治疗方法：
+茵陈蒿汤：具有清热解毒、利湿化痰的功效，可以帮助改善肝脏功能。
+当归活血汤：通过活血调理，促进肝脏的修复和再生。
+柴胡疏肝散：有助于舒肝解郁、调理肝气，缓解肝炎症状。
+桑螵蛸散：可清热解毒、消肿止痛，对酒精性肝炎有一定的辅助治疗效果。</t>
+  </si>
+  <si>
+    <t>关节炎</t>
+  </si>
+  <si>
+    <t>1、药物治疗：使用非甾体抗炎药（NSAIDs）来减轻疼痛和炎症，必要时使用糖皮质激素或生物制剂。
+2、物理治疗：包括热疗、冷疗、电疗、水疗等，以缓解疼痛和改善关节功能。
+3、运动疗法：适当的关节运动和肌肉锻炼，增强关节稳定性和肌肉力量。
+4、手术治疗：在关节炎严重或保守治疗无效时，可能需要进行关节置换或关节镜手术。</t>
+  </si>
+  <si>
+    <t>中药治疗：根据患者的证型（如风寒湿痹、湿热痹阻、肝肾亏虚等），使用相应的中药方剂，如独活寄生汤、四妙丸、血府逐瘀汤等。
+1、针灸：通过刺激特定的穴位来调节气血，平衡阴阳，如足三里、合谷、三阴交等穴位。
+2、推拿：通过按摩和推拿手法来放松肌肉，促进血液循环，缓解关节疼痛。
+3、拔罐：通过在特定部位形成负压，促进局部血液循环，减轻疼痛和炎症。
+4、艾灸：利用艾条的热力和药物作用，温通经络，散寒止痛。
+5、药膳：结合患者的体质，推荐适合的食疗方案，如食用具有温补作用的食物。</t>
+  </si>
+  <si>
+    <t>甲型肝炎</t>
+  </si>
+  <si>
+    <t>1、休息：保证充足的休息，避免过度劳累。
+2、饮食调整：建议低脂、易消化的饮食，避免酒精和可能损害肝脏的药物。
+3、补液和电解质平衡：对于脱水和电解质失衡，通过口服或静脉补液来补充丢失的水分和电解质。
+4、监测肝功能：定期检查肝功能指标，如ALT、AST、TBIL等。
+5、预防：接种甲肝疫苗是预防甲型肝炎的有效方法。"</t>
+  </si>
+  <si>
+    <t>1、中药治疗：根据患者的证型（如湿热内蕴、脾胃
+虚弱等），使用相应的中药方剂，如茵陈蒿汤、五苓散等，以清热解毒、健脾利湿为主。
+2、饮食调理：建议患者采取清淡饮食，避免油腻、辛辣、生冷和不易消化的食物，同时注意饮食卫生。
+3、生活方式调整：建议患者保持良好的生活习惯，如适量运动、充足休息、避免过度劳累。</t>
+  </si>
+  <si>
+    <t>乙型肝炎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、药物治疗：使用止痛、消炎、收缩血管的药物，
+如痔疮栓剂、软膏、口服静脉张力调节药物等。
+2、局部治疗：如硬化剂注射、红外线光凝、橡皮圈套扎等，适用于轻度至中度痔疮。
+3、手术治疗：适用于中重度痔疮或保守治疗无效的情况，包括传统的痔疮手术和微创手术（如PPH、TST等）。"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、脾虚气馅型：表现为面色无光泽，易疲劳，大便带血，肛门坠胀，痔核脱出。治疗原则为健脾益气，常用的药物有黄芩、白术、党参等。
+2、湿热下注型：表现为肛门瘙痒、肿胀、疼痛，大便时出血。治疗原则为清热利湿，常用的药物有黄连、黄柏、地肤子等。
+3、气滞血瘀型：表现为肛门疼痛，痔核紫暗，难以还纳。治疗原则为活血化瘀，常用的药物有桃仁、红花、川芎等。"
+</t>
+  </si>
+  <si>
+    <t>痔疮</t>
+  </si>
+  <si>
+    <t>1、药物治疗：使用止痛、消炎、收缩血管的药物，如痔疮栓剂、软膏、口服静脉张力调节药物等。
+2、局部治疗：如硬化剂注射、红外线光凝、橡皮圈套扎等，适用于轻度至中度痔疮。
+3、手术治疗：适用于中重度痔疮或保守治疗无效的情况，包括传统的痔疮手术和微创手术（如PPH、TST等）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、脾虚气馅型：表现为面色无光泽，易疲劳，大便
+带血，肛门坠胀，痔核脱出。治疗原则为健脾益气，常用的药物有黄芩、白术、党参等。
+2、湿热下注型：表现为肛门瘙痒、肿胀、疼痛，大便时出血。治疗原则为清热利湿，常用的药物有黄连、黄柏、地肤子等。
+3、气滞血瘀型：表现为肛门疼痛，痔核紫暗，难以还纳。治疗原则为活血化瘀，常用的药物有桃仁、红花、川芎等。"
+</t>
+  </si>
+  <si>
+    <t>肺炎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、抗生素治疗：对于细菌性肺炎，使用抗生素如
+青霉素、头孢菌素、大环内酯类等。
+2、抗病毒治疗：对于病毒性肺炎，使用抗病毒药物如奥司他韦、阿比多尔等。
+3、抗真菌治疗：对于真菌性肺炎，使用抗真菌药物如氟康唑、两性霉素B等。
+4、支持治疗：包括补充液体、电解质，必要时给予氧疗或机械通气支持。
+5、对症治疗：使用退热药、止咳药、化痰药等缓解症状。"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、中药治疗：根据患者的证型（如风寒袭肺、风热犯肺、痰热壅肺等），使用相应的中药方剂，如麻杏石甘汤、银翘散、清肺排毒汤等，以解表散寒、清热解毒、化痰止咳为主。
+2、饮食调理：建议患者采取清淡饮食，避免油腻、辛辣、生冷和不易消化的食物，同时注意饮食卫生。
+3、生活方式调整：建议患者保持良好的生活习惯，如适量运动、充足休息、避免过度劳累。
+</t>
+  </si>
+  <si>
+    <t>颈椎病</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、药物治疗：使用非甾体抗炎药（NSAIDs）、肌肉松弛剂、
+神经痛药物等以缓解疼痛和炎症。
+2、物理治疗：包括热疗、冷疗、电疗、超声治疗等，以及颈部牵引和功能锻炼。
+3、手术治疗：适用于中重度颈椎病或保守治疗无效的情况，包括椎间盘切除、椎间植骨融合术、椎体次全切除术等。"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、风寒痹阻型：表现为颈项、肩臂疼痛，放射到前臂，手指麻木，疼痛与气候有关，遇寒痛增，得温痛减。治疗原则为祛风散寒，活血化瘀，常用的药物有羌活、独活、川芎等。
+2、劳伤瘀阻型：多有外伤史或久坐垂首等职业颈部过劳史，颈部僵痛，劳累后加重。治疗原则为活血化瘀，舒筋活络，常用的药物有桃仁、红花、地龙等。
+3、肝肾亏虚型：颈部酸痛同时伴有头晕目花，耳鸣耳聋，腰膝酸软。治疗原则为滋补肝肾，强筋壮骨，常用的药物有熟地黄、山茱萸、杜仲等。"
+</t>
+  </si>
+  <si>
+    <t>高血压</t>
+  </si>
+  <si>
+    <t>1、血管紧张素转化酶抑制剂：如卡托普利片、马来酸依那普利叶酸片、培哚普利叔丁胺片等药物，主要通过抑制循环和组织血管紧张素转化酶发挥降压作用；
+2、血管紧张素Ⅱ受体拮抗剂：常用的药物包括厄贝沙坦片、氯沙坦钾片、缬沙坦胶囊等药物，可以通过阻滞血管紧张素Ⅱ与其受体的结合，舒缓血管、降低外周阻力，从而降低血压；
+3、β受体阻滞剂：可通过抑制中枢和周围肾素-血管紧张素-醛固酮系统，抑制心肌收缩力和减慢心率而发挥作用，如酒石酸美托洛尔片、富马酸比索洛尔片、阿替洛尔片等；
+4、利尿剂：包括呋塞米片、氨苯蝶啶片、氢氯噻嗪片等药物，降压作用主要通过排钠，减少细胞外容量，降低外周血管阻力；
+5、钙通道阻滞剂：这类药物包括硝苯地平片、非洛地平片、拉西地平片等药物，这类药物主要是减少细胞外钙离子进入血管平滑肌细胞内，减弱兴奋收缩偶联，降低阻力血管的收缩反应。</t>
+  </si>
+  <si>
+    <t>1、中药治疗：根据患者的证型（如肝阳上亢、痰湿内盛、肝肾阴虚等），使用相应的中药方剂，如天麻钩藤饮、半夏白术天麻汤、杞菊地黄丸等。
+2、针灸：通过刺激特定的穴位来调节气血，平衡阴阳，如人迎、曲池、合谷、足三里等穴位。
+3、推拿：通过按摩和推拿手法来放松肌肉，促进血液循环，缓解高血压症状。
+4、药膳食疗：结合患者的体质，推荐适合的食疗方案，如决明荞麦粥、天麻鲫鱼汤等。</t>
+  </si>
+  <si>
+    <t>慢性胆汁淤积</t>
+  </si>
+  <si>
+    <t>1、病因治疗：针对引起胆汁淤积的原因进行治疗，如抗病毒治疗、戒酒、停用引起胆汁淤积的药物等。
+2、药物治疗：使用熊去氧胆酸（UDCA）等药物促进胆汁排泄，改善肝功能。对于某些特定类型的胆汁淤积性肝病，如原发性胆汁性肝硬化（PBC），可能需要长期服用UDCA。
+3、支持治疗：补充脂溶性维生素，如维生素A、D、E、K，以及钙和维生素D以预防骨质疏松。
+4、手术治疗：对于由胆管梗阻引起的胆汁淤积，可能需要进行手术解除梗阻，如胆管结石的取出或胆管支架的放置。
+5、肝移植：对于晚期胆汁淤积性肝病，如肝硬化或肝功能衰竭，肝移植可能是最终的治疗选择。"</t>
+  </si>
+  <si>
+    <t>1、中药治疗：根据患者的证型（如肝郁脾虚、肝胆湿热等），使用相应的中药方剂，如逍遥散、柴胡疏肝散、茵栀黄等，以疏肝解郁、健脾化湿、清热利胆为主。
+2、针灸：通过刺激特定的穴位来调节气血，平衡阴阳，如足三里、内关等穴位。
+3、饮食调理：建议患者采取清淡饮食，避免油腻、辛辣、生冷和不易消化的食物，同时注意饮食卫生。
+4、生活方式调整：建议患者保持良好的生活习惯，如适量运动、充足休息、避免过度压力等。</t>
+  </si>
+  <si>
+    <t>消化性溃疡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、抑酸治疗：使用质子泵抑制剂（PPI）或H2受体拮抗剂（H2RA）降低胃酸分泌。
+2、黏膜保护剂：如硫糖铝、铋剂等，保护胃黏膜，促进溃疡愈合。
+3、避免使用NSAIDs：对于NSAIDs诱发的溃疡，应停用或更换为其他药物，并使用PPI预防溃疡。
+4、手术治疗：对于药物无效、并发症如出血、穿孔或梗阻等情况，可能需要手术治疗。"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、肝气犯胃证：疏肝理气，和胃止痛。常用的方药有柴胡疏肝散加减。
+2、脾胃虚寒证：温中散寒，健脾和胃。常用的方药有黄芪建中汤加味。
+3、胃阴不足证：养阴益胃，清热止痛。常用的方药有一贯煎合芍药甘草汤加减。
+4、瘀血阻络证：活血化瘀，通络止痛。常用的方药有失笑散合丹参饮加减。"
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推拿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft Yahei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等方式养肝健脾、清热补气，促进病情痊愈。日常应保持规律作息、均衡饮食、戒烟酒、适当运动等良好的生活习惯。中医治疗肝炎一般需要联合西医治疗，肝功能出现异常时，需遵医嘱使用甘草酸制剂如复方甘草酸苷注射液、复方甘草酸苷片等保肝药物。</t>
+    </r>
+  </si>
+  <si>
     <t>心脏病</t>
-  </si>
-  <si>
-    <t>过敏</t>
-  </si>
-  <si>
-    <t>黄疸</t>
-  </si>
-  <si>
-    <t>脓疱</t>
-  </si>
-  <si>
-    <t>低血糖</t>
-  </si>
-  <si>
-    <t>酒精性肝炎</t>
-  </si>
-  <si>
-    <t>关节炎</t>
-  </si>
-  <si>
-    <t>甲型肝炎</t>
-  </si>
-  <si>
-    <t>乙型肝炎</t>
-  </si>
-  <si>
-    <t>痔疮</t>
-  </si>
-  <si>
-    <t>肺炎</t>
-  </si>
-  <si>
-    <t>颈椎病</t>
-  </si>
-  <si>
-    <t>高血压</t>
-  </si>
-  <si>
-    <t>慢性胆汁淤积</t>
-  </si>
-  <si>
-    <t>消化性溃疡</t>
-  </si>
-  <si>
-    <t>西医建议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中医建议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戊型肝炎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登革热</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺癌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>X线检查是诊断肺癌最常用的重要手段。通过X线检查可以了解肺癌的部位和大小。早期肺癌病例X线检查虽尚未能显现肿块，但可能看到由于支气管阻塞引起的局部肺气肿、肺不张或病灶邻近部位的浸润性病变或肺部炎变。
+近二十多年来肿瘤化疗发展迅速、应用广泛。化疗对小细胞肺癌的疗效无论早期或晚期较肯定，甚至有根治的少数报告；对非小细胞肺癌也有一定疗效，但仅为姑息，作用有待进一步提高。近年化疗在肺癌中的作用已不再限于不能手术的晚期肺癌患者，而常作为全身治疗列入肺癌的综合治疗方案。化疗会抑制骨髓造血系统，主要是白细胞和血小板的下降,联合中医中药及免疫治疗效果佳.（一）小细胞肺癌的化疗 由于小细胞肺癌所具有的生物学特点，目前公认除少数充分证据表明无胸内淋巴结转移者外，应首选化学治疗。
+谨遵医嘱，积极配合治疗。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>清肺解毒法：有清肺止咳、解毒除痰、益气消癥的功效，适于支气管肺癌、胸部肿瘤痰热内壅、气促胸痛者。选用：鱼腥草、桑白皮、地骨皮、全瓜蒌、苇茎、桃仁、葶苈子、浙贝、守宫、地龙、沙参、天冬、石上柏等。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,26 +622,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="2">
@@ -227,22 +689,38 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -539,364 +1017,623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="61.06640625" customWidth="1"/>
     <col min="4" max="4" width="62.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="81">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="121.5">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="108">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="162">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="162">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="148.5">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="81">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="256.5">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="175.5">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="94.5">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="67.5">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="81">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="81">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="81">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="121.5">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="162">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="81">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="94.5">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="108">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="189">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="94.5">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="310.5">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="148.5">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="121.5">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="283.5">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="256.5">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="229.5">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="283.5">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="138.75">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="162">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="108">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="152.65">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="94.5">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="94.5">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="108">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="135">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="135">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="194.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="148.5">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="108">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>122</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="175.5">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/病症及其对应的建议.xlsx
+++ b/data/病症及其对应的建议.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\计科生活\大二\大数据实践赛\symptom-disease-dataset\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Web\Disease_AI\symptom-disease\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE6E59-3D92-4290-A27A-0797370A8309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38A29CF-385C-4F6F-84A6-73703FC65887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="6405" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -313,22 +313,6 @@
 4、血淋：实证表现小便热涩刺痛、尿色深红，或者伴有血块，一般疼痛特别急剧或者兼有心烦；虚证表现为尿色淡红、尿痛、滞涩不明显，伴腰膝酸软、神疲乏力；实证方剂是小蓟饮子，虚证方用知柏地黄丸；
 5、膏淋：分实证和虚证表现，实证一般小便混浊如米泔水，米泔水就是淘米水颜色，放置久可有絮状沉淀，上面漂有油脂、凝块或者混有血液、尿道热涩疼痛；虚证一般表现为病久反复发作，尿出如脂、小便涩痛，不见减轻，形体日渐消瘦，头昏无力，腰膝酸软；一般实证药物选程氏萆薢分清饮，虚证方用膏淋汤；
 6、劳淋：小便不甚赤涩、淋漓不已，就是小便尿不尽，时作时止，一般劳累时可以发作，伴有腰酸、膝软，神疲乏力等，方药选无比山药丸</t>
-  </si>
-  <si>
-    <t>得了心脏病，药物治疗是首选的治疗方案，可以通过降压、降脂、扩血管、抗心律失常等方案进行治疗：
-1、降压药物包括利尿剂、血管紧张素转换酶抑制剂、β受体阻滞剂、血管紧张素Ⅱ受体拮抗剂以及钙离子通道阻滞剂等；
-2、降脂药物包括他汀类药，如阿托伐他汀、瑞舒伐他汀等；
-3、抗心律失常药物包括胺碘酮、索他洛尔等；
-4、扩血管药物包括硝酸甘油、硝酸异山梨酯缓释片等；
-5、抗血小板药物包括阿司匹林和替格瑞洛等；
-6、抗凝药物包括华法林、达比加群等。
-还有心脏病的手术治疗，包括经皮冠状动脉介入治疗、冠状动脉旁路移植术、射频消融术以及起搏器植入术。</t>
-  </si>
-  <si>
-    <t>心脏病在中医中属于胸痹的范畴，以胸部闷痛、喘息不得卧为主要临床表现，可以使用中成药、中药材、中药方剂进行治疗，有利于改善心脏病导致的心悸、气短、喘息、自汗等不适症状。
-1、中成药：心脏病可能是由心脏气血瘀滞、气血不足等因素导致，可以遵医嘱使用益气养阴、活血化瘀、清热解毒、强心复脉的药物进行治疗，例如荣心丸、心达康片、心肝宝胶囊、速效救心丸、稳心颗粒、冠心苏合胶囊、麝香保心丸、脑心通胶囊等；
-2、中药材：心脏病患者可以使用黄芪、人参、党参、西洋参、白术、茯苓、甘草等具有补气活血作用的药物，还可以使用丹参、桃仁、红花、川芎、地龙、乳香、郁金等具有活血化瘀作用的药物，也可以使用泽泻、猪苓、车前子、车前草、冬瓜皮、茯苓皮、生姜皮、葶苈子等药物进行利水治疗。此外，还可以使用附子、乌头、肉桂、干姜等药物来补益肾阳，改善心脉瘀阻所致的心悸不宁、气短乏力、胸闷胸痛等症状，还可以改善室性早搏、房性早搏等情况；
-3、中药方剂：针对于心脾两虚导致的多梦易醒等不适症状，可以使用补益心脾、养血安神的药物进行治疗，例如归脾汤等。阴虚火旺导致心烦、心悸时，可以滋阴降火、养心安神，遵医嘱使用黄连阿胶汤等药物进行治疗。心虚胆怯导致多梦易醒、心悸等不适症状时，可以使用益气镇惊、安神定志的中药方剂进行治疗，例如安神定志丸等。</t>
   </si>
   <si>
     <t>过敏</t>
@@ -602,12 +586,49 @@
     <t>清肺解毒法：有清肺止咳、解毒除痰、益气消癥的功效，适于支气管肺癌、胸部肿瘤痰热内壅、气促胸痛者。选用：鱼腥草、桑白皮、地骨皮、全瓜蒌、苇茎、桃仁、葶苈子、浙贝、守宫、地龙、沙参、天冬、石上柏等。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;p&gt;心脏病在中医中属于胸痹的范畴，以胸部闷痛、喘息不得卧为主要临床表现，可以使用中成药、中药材、中药方剂进行治疗，有利于改善心脏病导致的心悸、气短、喘息、自汗等不适症状。&lt;/p&gt;
+&lt;p&gt;1、中成药：心脏病可能是由心脏气血瘀滞、气血不足等因素导致，可以遵医嘱使用益气养阴、清热解毒、强心复脉的药物进行治疗，例如荣心丸、心达康片、心肝宝胶囊、速效救心丸、稳心颗粒、冠心苏合胶囊、麝香保心丸、脑心通胶囊等；&lt;/p&gt;
+&lt;p&gt;2、中药材：心脏病患者可以使用黄芪、人参、党参、西洋参、白术、茯苓、甘草等具有补气活血作用的药物，还可以使用丹参、桃仁、红花、川芎、地龙、乳香、郁金等具有活血化瘀作用的药物，也可以使用泽泻、猪苓、车前子、车前草、冬瓜皮、茯苓皮、生姜皮、葶苈子等药物进行利水治疗。此外，还可以使用附子、乌头、肉桂、干姜等药物来补益肾阳，改善心脉瘀阻所致的心悸不宁、气短乏力、胸闷胸痛等症状，还可以改善室性早搏、房性早搏等情况；&lt;/p&gt;
+&lt;p&gt;3、中药方剂：针对于心脾两虚导致的多梦易醒等不适症状，可以使用补益心脾、养血安神的药物进行治疗，例如归脾汤等。阴虚火旺导致心烦、心悸时，可以滋阴降火、养心安神，遵医嘱使用黄连阿胶汤等药物进行治疗。心虚胆怯导致多梦易醒、心悸等不适症状时，可以使用益气镇惊、安神定志的中药方剂进行治疗，例如安神定志丸等。&lt;/p&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;p&gt;得了心脏病，药物治疗是首选的治疗方案，可以通过降压、降脂、扩血管、抗心律失常等方案进行治疗：&lt;/p&gt;
+&lt;p&gt;1、降压药物包括利尿剂、血管紧张素转换酶抑制剂、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>受体阻滞剂、血管紧张素Ⅱ受体拮抗剂以及钙离子通道阻滞剂等；&lt;/p&gt;
+&lt;p&gt;2、降脂药物包括他汀类药，如阿托伐他汀、瑞舒伐他汀等；&lt;/p&gt;
+&lt;p&gt;3、抗心律失常药物包括胺碘酮、索他洛尔等；&lt;/p&gt;
+&lt;p&gt;4、扩血管药物包括硝酸甘油、硝酸异山梨酯缓释片等；&lt;/p&gt;&lt;p&gt;还有心脏病的手术治疗，包括经皮冠状动脉介入治疗、冠状动脉旁路移植术、射频消融术以及起搏器植入术。&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,6 +672,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1019,15 +1047,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.55"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="61.06640625" customWidth="1"/>
-    <col min="4" max="4" width="62.265625" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" customWidth="1"/>
+    <col min="4" max="4" width="62.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1044,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54">
+    <row r="2" spans="1:4" ht="58.1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1058,7 +1086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="81">
+    <row r="3" spans="1:4" ht="101.65">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1072,7 +1100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="121.5">
+    <row r="4" spans="1:4" ht="130.69999999999999">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1086,7 +1114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="108">
+    <row r="5" spans="1:4" ht="116.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1100,7 +1128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="162">
+    <row r="6" spans="1:4" ht="188.8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1114,7 +1142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="162">
+    <row r="7" spans="1:4" ht="188.8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1128,7 +1156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="148.5">
+    <row r="8" spans="1:4" ht="174.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1142,7 +1170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="81">
+    <row r="9" spans="1:4" ht="87.75">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1153,10 +1181,10 @@
         <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="256.5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="275.89999999999998">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1170,7 +1198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="175.5">
+    <row r="11" spans="1:4" ht="188.8">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1184,7 +1212,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="94.5">
+    <row r="12" spans="1:4" ht="101.65">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1198,7 +1226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="67.5">
+    <row r="13" spans="1:4" ht="72.599999999999994">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1212,7 +1240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="81">
+    <row r="14" spans="1:4" ht="87.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1226,7 +1254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="81">
+    <row r="15" spans="1:4" ht="87.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1240,7 +1268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="81">
+    <row r="16" spans="1:4" ht="87.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1254,7 +1282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="121.5">
+    <row r="17" spans="1:4" ht="145.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1268,7 +1296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="162">
+    <row r="18" spans="1:4" ht="174.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1282,7 +1310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="81">
+    <row r="19" spans="1:4" ht="87.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1296,7 +1324,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="94.5">
+    <row r="20" spans="1:4" ht="101.65">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1310,7 +1338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="108">
+    <row r="21" spans="1:4" ht="116.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1324,7 +1352,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="189">
+    <row r="22" spans="1:4" ht="203.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1338,7 +1366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="94.5">
+    <row r="23" spans="1:4" ht="101.65">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1352,7 +1380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="310.5">
+    <row r="24" spans="1:4" ht="334">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1366,7 +1394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="148.5">
+    <row r="25" spans="1:4" ht="174.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1380,7 +1408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="121.5">
+    <row r="26" spans="1:4" ht="130.69999999999999">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1394,7 +1422,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="283.5">
+    <row r="27" spans="1:4" ht="348.5">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1408,228 +1436,228 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="256.5">
+    <row r="28" spans="1:4" ht="290.45">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="229.5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="261.39999999999998">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="283.5">
+    </row>
+    <row r="30" spans="1:4" ht="319.5">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="138.75">
+    </row>
+    <row r="31" spans="1:4" ht="139.19999999999999">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="162">
+    </row>
+    <row r="32" spans="1:4" ht="174.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="108">
+    </row>
+    <row r="33" spans="1:4" ht="130.69999999999999">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="152.65">
+    </row>
+    <row r="34" spans="1:4" ht="167">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="94.5">
+    </row>
+    <row r="35" spans="1:4" ht="101.65">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="94.5">
+    </row>
+    <row r="36" spans="1:4" ht="116.2">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="108">
+    </row>
+    <row r="37" spans="1:4" ht="116.2">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="135">
+    </row>
+    <row r="38" spans="1:4" ht="145.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="135">
+    </row>
+    <row r="39" spans="1:4" ht="145.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="194.25">
+    </row>
+    <row r="40" spans="1:4" ht="194.85">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="148.5">
+    </row>
+    <row r="41" spans="1:4" ht="159.75">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="108">
+    </row>
+    <row r="42" spans="1:4" ht="130.69999999999999">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="175.5">
+    </row>
+    <row r="43" spans="1:4" ht="188.8">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/病症及其对应的建议.xlsx
+++ b/data/病症及其对应的建议.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Web\Disease_AI\symptom-disease\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\计科生活\大二\大数据实践赛\symptom-disease-dataset\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38A29CF-385C-4F6F-84A6-73703FC65887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD9CC7-B28B-4ACC-9E8D-06AD5CDF4AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,12 +574,6 @@
   </si>
   <si>
     <t>肺癌</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>X线检查是诊断肺癌最常用的重要手段。通过X线检查可以了解肺癌的部位和大小。早期肺癌病例X线检查虽尚未能显现肿块，但可能看到由于支气管阻塞引起的局部肺气肿、肺不张或病灶邻近部位的浸润性病变或肺部炎变。
-近二十多年来肿瘤化疗发展迅速、应用广泛。化疗对小细胞肺癌的疗效无论早期或晚期较肯定，甚至有根治的少数报告；对非小细胞肺癌也有一定疗效，但仅为姑息，作用有待进一步提高。近年化疗在肺癌中的作用已不再限于不能手术的晚期肺癌患者，而常作为全身治疗列入肺癌的综合治疗方案。化疗会抑制骨髓造血系统，主要是白细胞和血小板的下降,联合中医中药及免疫治疗效果佳.（一）小细胞肺癌的化疗 由于小细胞肺癌所具有的生物学特点，目前公认除少数充分证据表明无胸内淋巴结转移者外，应首选化学治疗。
-谨遵医嘱，积极配合治疗。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -621,6 +615,12 @@
 &lt;p&gt;3、抗心律失常药物包括胺碘酮、索他洛尔等；&lt;/p&gt;
 &lt;p&gt;4、扩血管药物包括硝酸甘油、硝酸异山梨酯缓释片等；&lt;/p&gt;&lt;p&gt;还有心脏病的手术治疗，包括经皮冠状动脉介入治疗、冠状动脉旁路移植术、射频消融术以及起搏器植入术。&lt;/p&gt;</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>X线检查是诊断肺癌最常用的重要手段。通过X线检查可以了解肺癌的部位和大小。早期肺癌病例X线检查虽尚未能显现肿块，但可能看到由于支气管阻塞引起的局部肺气肿、肺不张或病灶邻近部位的浸润性病变或肺部炎变。
+近二十多年来肿瘤化疗发展迅速、应用广泛。化疗对小细胞肺癌的疗效无论早期或晚期较肯定，甚至有根治的少数报告；对非小细胞肺癌也有一定疗效，但仅为姑息，作用有待进一步提高。近年化疗在肺癌中的作用已不再限于不能手术的晚期肺癌患者，而常作为全身治疗列入肺癌的综合治疗方案。化疗会抑制骨髓造血系统，主要是白细胞和血小板的下降,联合中医中药及免疫治疗效果佳.小细胞肺癌的化疗 由于小细胞肺癌所具有的生物学特点，目前公认除少数充分证据表明无胸内淋巴结转移者外，应首选化学治疗。
+谨遵医嘱，积极配合治疗。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1047,15 +1047,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" customWidth="1"/>
-    <col min="4" max="4" width="62.21875" customWidth="1"/>
+    <col min="3" max="3" width="61.1328125" customWidth="1"/>
+    <col min="4" max="4" width="62.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1072,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="58.1">
+    <row r="2" spans="1:4" ht="54">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="101.65">
+    <row r="3" spans="1:4" ht="81">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="130.69999999999999">
+    <row r="4" spans="1:4" ht="121.5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="116.2">
+    <row r="5" spans="1:4" ht="108">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="188.8">
+    <row r="6" spans="1:4" ht="162">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="188.8">
+    <row r="7" spans="1:4" ht="162">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="174.25">
+    <row r="8" spans="1:4" ht="148.5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="87.75">
+    <row r="9" spans="1:4" ht="81">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="275.89999999999998">
+    <row r="10" spans="1:4" ht="256.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="188.8">
+    <row r="11" spans="1:4" ht="175.5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="101.65">
+    <row r="12" spans="1:4" ht="94.5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="72.599999999999994">
+    <row r="13" spans="1:4" ht="67.5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="87.15">
+    <row r="14" spans="1:4" ht="81">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="87.15">
+    <row r="15" spans="1:4" ht="81">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="87.15">
+    <row r="16" spans="1:4" ht="81">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="145.25">
+    <row r="17" spans="1:4" ht="121.5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="174.25">
+    <row r="18" spans="1:4" ht="162">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="87.15">
+    <row r="19" spans="1:4" ht="81">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="101.65">
+    <row r="20" spans="1:4" ht="94.5">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="116.2">
+    <row r="21" spans="1:4" ht="108">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="203.3">
+    <row r="22" spans="1:4" ht="189">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="101.65">
+    <row r="23" spans="1:4" ht="94.5">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="334">
+    <row r="24" spans="1:4" ht="310.5">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="174.25">
+    <row r="25" spans="1:4" ht="148.5">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="130.69999999999999">
+    <row r="26" spans="1:4" ht="121.5">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="348.5">
+    <row r="27" spans="1:4" ht="283.5">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="290.45">
+    <row r="28" spans="1:4" ht="256.5">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1444,13 +1444,13 @@
         <v>124</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="261.39999999999998">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="229.5">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="319.5">
+    <row r="30" spans="1:4" ht="283.5">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="139.19999999999999">
+    <row r="31" spans="1:4" ht="138.75">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="174.25">
+    <row r="32" spans="1:4" ht="162">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="130.69999999999999">
+    <row r="33" spans="1:4" ht="108">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="167">
+    <row r="34" spans="1:4" ht="152.65">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="101.65">
+    <row r="35" spans="1:4" ht="94.5">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="116.2">
+    <row r="36" spans="1:4" ht="94.5">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="116.2">
+    <row r="37" spans="1:4" ht="108">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="145.25">
+    <row r="38" spans="1:4" ht="135">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="145.25">
+    <row r="39" spans="1:4" ht="135">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="194.85">
+    <row r="40" spans="1:4" ht="194.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="159.75">
+    <row r="41" spans="1:4" ht="148.5">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="130.69999999999999">
+    <row r="42" spans="1:4" ht="108">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="188.8">
+    <row r="43" spans="1:4" ht="175.5">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1654,10 +1654,10 @@
         <v>125</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
